--- a/database/industries/ghaza/gheshasfa/product/quarterly_seprated.xlsx
+++ b/database/industries/ghaza/gheshasfa/product/quarterly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshasfa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A549EFBF-F275-40F4-B202-3FD9E4727C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050AB491-310C-4755-8641-C1E15E069E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/industries/ghaza/gheshasfa/product/quarterly_seprated.xlsx
+++ b/database/industries/ghaza/gheshasfa/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshasfa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshasfa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B782D-3CF5-45F2-94C3-5EF2424589CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C3A481-B672-4DE9-8388-716BA37AB006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -672,16 +687,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I191"/>
+  <dimension ref="B1:N191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -690,8 +705,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -702,8 +722,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -714,8 +739,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -724,8 +754,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -736,8 +771,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -748,8 +788,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -758,8 +803,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -780,8 +830,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -790,10 +855,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -802,296 +872,481 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
+      <c r="E11" s="11">
+        <v>541</v>
+      </c>
+      <c r="F11" s="11">
+        <v>652</v>
+      </c>
+      <c r="G11" s="11">
+        <v>486</v>
+      </c>
+      <c r="H11" s="11">
+        <v>424</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>1667</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1439</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1305</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1443</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1479</v>
+      </c>
+      <c r="J12" s="13">
         <v>1119</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>1489</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>1339</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>1177</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
+      <c r="E13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2180</v>
+      </c>
+      <c r="G13" s="11">
+        <v>8562</v>
+      </c>
+      <c r="H13" s="11">
+        <v>417</v>
+      </c>
+      <c r="I13" s="11">
+        <v>275</v>
+      </c>
+      <c r="J13" s="11">
         <v>476</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>285</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>175</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>2081</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1446</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1511</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1991</v>
+      </c>
+      <c r="I14" s="13">
+        <v>2391</v>
+      </c>
+      <c r="J14" s="13">
         <v>1477</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>1888</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>1787</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>1284</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>274</v>
+      </c>
+      <c r="F15" s="11">
+        <v>314</v>
+      </c>
+      <c r="G15" s="11">
         <v>267</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
+        <v>281</v>
+      </c>
+      <c r="I15" s="11">
+        <v>230</v>
+      </c>
+      <c r="J15" s="11">
+        <v>267</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>257</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>224</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
+        <v>3180</v>
+      </c>
+      <c r="F16" s="13">
+        <v>3037</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2794</v>
+      </c>
+      <c r="H16" s="13">
+        <v>3169</v>
+      </c>
+      <c r="I16" s="13">
+        <v>3655</v>
+      </c>
+      <c r="J16" s="13">
         <v>3767</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13">
         <v>3374</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>3410</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>3336</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>3346</v>
+      </c>
+      <c r="F17" s="11">
+        <v>3947</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3964</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3594</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1796</v>
+      </c>
+      <c r="J17" s="11">
         <v>2282</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
         <v>2034</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>2631</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>2496</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
+        <v>20422</v>
+      </c>
+      <c r="F18" s="13">
+        <v>12075</v>
+      </c>
+      <c r="G18" s="13">
+        <v>18041</v>
+      </c>
+      <c r="H18" s="13">
+        <v>9024</v>
+      </c>
+      <c r="I18" s="13">
+        <v>7956</v>
+      </c>
+      <c r="J18" s="13">
         <v>7498</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
         <v>6397</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>5905</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>7725</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>6690</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1141</v>
+      </c>
+      <c r="G20" s="13">
+        <v>664</v>
+      </c>
+      <c r="H20" s="13">
+        <v>2588</v>
+      </c>
+      <c r="I20" s="13">
+        <v>852</v>
+      </c>
+      <c r="J20" s="13">
         <v>2603</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
         <v>2570</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>1980</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>3097</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11">
+      <c r="E21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
+        <v>488</v>
+      </c>
+      <c r="J21" s="11">
         <v>549</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="K21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="11">
         <v>864</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>305</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>314</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15">
+        <v>38201</v>
+      </c>
+      <c r="F22" s="15">
+        <v>26231</v>
+      </c>
+      <c r="G22" s="15">
+        <v>37594</v>
+      </c>
+      <c r="H22" s="15">
+        <v>22931</v>
+      </c>
+      <c r="I22" s="15">
+        <v>19122</v>
+      </c>
+      <c r="J22" s="15">
         <v>20038</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
         <v>19158</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>17756</v>
       </c>
-      <c r="I22" s="15">
+      <c r="N22" s="15">
         <v>20052</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1100,224 +1355,364 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>13</v>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
         <v>12</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="13">
+      <c r="K25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="13">
         <v>34</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
         <v>0</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
         <v>0</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
         <v>0</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>13</v>
+      <c r="F28" s="11">
+        <v>0</v>
       </c>
       <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="11">
         <v>239</v>
       </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
-        <v>13</v>
+      <c r="E29" s="13">
+        <v>0</v>
       </c>
       <c r="F29" s="13">
         <v>0</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="11">
+        <v>775</v>
+      </c>
+      <c r="J30" s="11">
         <v>-500</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>13</v>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17">
+        <v>775</v>
+      </c>
+      <c r="J32" s="17">
         <v>-488</v>
       </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="17">
+      <c r="K32" s="17">
+        <v>0</v>
+      </c>
+      <c r="L32" s="17">
         <v>273</v>
       </c>
-      <c r="H32" s="17">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M32" s="17">
+        <v>0</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1326,13 +1721,18 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
@@ -1341,139 +1741,229 @@
       <c r="F34" s="11">
         <v>0</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
         <v>0</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
         <v>0</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>13</v>
+      <c r="F37" s="13">
+        <v>0</v>
       </c>
       <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="13">
         <v>51</v>
       </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-      <c r="I37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M37" s="13">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
         <v>0</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>-11</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
         <v>0</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13">
+        <v>-57</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1484,50 +1974,80 @@
         <v>0</v>
       </c>
       <c r="G40" s="17">
+        <v>-68</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0</v>
+      </c>
+      <c r="I40" s="17">
+        <v>0</v>
+      </c>
+      <c r="J40" s="17">
+        <v>0</v>
+      </c>
+      <c r="K40" s="17">
+        <v>0</v>
+      </c>
+      <c r="L40" s="17">
         <v>51</v>
       </c>
-      <c r="H40" s="17">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M40" s="17">
+        <v>0</v>
+      </c>
+      <c r="N40" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>13</v>
+      <c r="E41" s="15">
+        <v>-202</v>
+      </c>
+      <c r="F41" s="15">
+        <v>379</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-123</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17">
         <v>0</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>13</v>
+      <c r="F42" s="17">
+        <v>0</v>
       </c>
       <c r="G42" s="17">
         <v>0</v>
@@ -1538,30 +2058,60 @@
       <c r="I42" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="17">
+        <v>0</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="17">
+        <v>0</v>
+      </c>
+      <c r="N42" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
+        <v>37999</v>
+      </c>
+      <c r="F43" s="15">
+        <v>26610</v>
+      </c>
+      <c r="G43" s="15">
+        <v>37526</v>
+      </c>
+      <c r="H43" s="15">
+        <v>22808</v>
+      </c>
+      <c r="I43" s="15">
+        <v>19897</v>
+      </c>
+      <c r="J43" s="15">
         <v>19550</v>
       </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="15">
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
         <v>19482</v>
       </c>
-      <c r="H43" s="15">
+      <c r="M43" s="15">
         <v>17756</v>
       </c>
-      <c r="I43" s="15">
+      <c r="N43" s="15">
         <v>20052</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1570,8 +2120,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1580,8 +2135,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1590,10 +2150,15 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1612,8 +2177,23 @@
       <c r="I47" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1622,10 +2202,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1634,296 +2219,481 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>13</v>
+      <c r="E50" s="11">
+        <v>273092</v>
+      </c>
+      <c r="F50" s="11">
+        <v>475657</v>
+      </c>
+      <c r="G50" s="11">
+        <v>423231</v>
+      </c>
+      <c r="H50" s="11">
+        <v>326912</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
+        <v>100428</v>
+      </c>
+      <c r="F51" s="13">
+        <v>113818</v>
+      </c>
+      <c r="G51" s="13">
+        <v>126804</v>
+      </c>
+      <c r="H51" s="13">
+        <v>123751</v>
+      </c>
+      <c r="I51" s="13">
+        <v>140569</v>
+      </c>
+      <c r="J51" s="13">
         <v>126132</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="13">
+      <c r="K51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="13">
         <v>233139</v>
       </c>
-      <c r="H51" s="13">
+      <c r="M51" s="13">
         <v>274403</v>
       </c>
-      <c r="I51" s="13">
+      <c r="N51" s="13">
         <v>231423</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11">
+      <c r="E52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="11">
+        <v>93694</v>
+      </c>
+      <c r="G52" s="11">
+        <v>90397</v>
+      </c>
+      <c r="H52" s="11">
+        <v>152184</v>
+      </c>
+      <c r="I52" s="11">
+        <v>167027</v>
+      </c>
+      <c r="J52" s="11">
         <v>274097</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="11">
+      <c r="K52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="11">
         <v>221716</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>151420</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>234265</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
+        <v>68533</v>
+      </c>
+      <c r="F53" s="13">
+        <v>64649</v>
+      </c>
+      <c r="G53" s="13">
+        <v>79095</v>
+      </c>
+      <c r="H53" s="13">
+        <v>97907</v>
+      </c>
+      <c r="I53" s="13">
+        <v>120126</v>
+      </c>
+      <c r="J53" s="13">
         <v>84416</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="K53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="13">
         <v>144359</v>
       </c>
-      <c r="H53" s="13">
+      <c r="M53" s="13">
         <v>183830</v>
       </c>
-      <c r="I53" s="13">
+      <c r="N53" s="13">
         <v>127552</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>38941</v>
+      </c>
+      <c r="F54" s="11">
+        <v>61660</v>
+      </c>
+      <c r="G54" s="11">
+        <v>71969</v>
+      </c>
+      <c r="H54" s="11">
+        <v>64652</v>
+      </c>
+      <c r="I54" s="11">
+        <v>48326</v>
+      </c>
+      <c r="J54" s="11">
         <v>61968</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="11">
+      <c r="K54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="11">
         <v>73293</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>94627</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>109219</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
+        <v>672572</v>
+      </c>
+      <c r="F55" s="13">
+        <v>926289</v>
+      </c>
+      <c r="G55" s="13">
+        <v>915099</v>
+      </c>
+      <c r="H55" s="13">
+        <v>995670</v>
+      </c>
+      <c r="I55" s="13">
+        <v>1134335</v>
+      </c>
+      <c r="J55" s="13">
         <v>1348002</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="13">
+      <c r="K55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="13">
         <v>1620628</v>
       </c>
-      <c r="H55" s="13">
+      <c r="M55" s="13">
         <v>2268313</v>
       </c>
-      <c r="I55" s="13">
+      <c r="N55" s="13">
         <v>2306629</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>774394</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1134274</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1174299</v>
+      </c>
+      <c r="H56" s="11">
+        <v>997199</v>
+      </c>
+      <c r="I56" s="11">
+        <v>664451</v>
+      </c>
+      <c r="J56" s="11">
         <v>843994</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="11">
+      <c r="K56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="11">
         <v>984462</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>1712037</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>1726705</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
+        <v>954720</v>
+      </c>
+      <c r="F57" s="13">
+        <v>787956</v>
+      </c>
+      <c r="G57" s="13">
+        <v>1435057</v>
+      </c>
+      <c r="H57" s="13">
+        <v>774662</v>
+      </c>
+      <c r="I57" s="13">
+        <v>729549</v>
+      </c>
+      <c r="J57" s="13">
         <v>848150</v>
       </c>
-      <c r="F57" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="13">
+      <c r="K57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="13">
         <v>902921</v>
       </c>
-      <c r="H57" s="13">
+      <c r="M57" s="13">
         <v>1036283</v>
       </c>
-      <c r="I57" s="13">
+      <c r="N57" s="13">
         <v>1374693</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
+        <v>545248</v>
+      </c>
+      <c r="F59" s="13">
+        <v>326125</v>
+      </c>
+      <c r="G59" s="13">
+        <v>291867</v>
+      </c>
+      <c r="H59" s="13">
+        <v>965684</v>
+      </c>
+      <c r="I59" s="13">
+        <v>532580</v>
+      </c>
+      <c r="J59" s="13">
         <v>1257996</v>
       </c>
-      <c r="F59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="13">
+      <c r="K59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="13">
         <v>1771052</v>
       </c>
-      <c r="H59" s="13">
+      <c r="M59" s="13">
         <v>1792273</v>
       </c>
-      <c r="I59" s="13">
+      <c r="N59" s="13">
         <v>2766023</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11">
+      <c r="E60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="11">
+        <v>363286</v>
+      </c>
+      <c r="J60" s="11">
         <v>417033</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="11">
+      <c r="K60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="11">
         <v>865585</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>524325</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>559575</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15">
+        <v>3427928</v>
+      </c>
+      <c r="F61" s="15">
+        <v>3984122</v>
+      </c>
+      <c r="G61" s="15">
+        <v>4607818</v>
+      </c>
+      <c r="H61" s="15">
+        <v>4498621</v>
+      </c>
+      <c r="I61" s="15">
+        <v>3900249</v>
+      </c>
+      <c r="J61" s="15">
         <v>5261788</v>
       </c>
-      <c r="F61" s="15">
-        <v>0</v>
-      </c>
-      <c r="G61" s="15">
+      <c r="K61" s="15">
+        <v>0</v>
+      </c>
+      <c r="L61" s="15">
         <v>6817155</v>
       </c>
-      <c r="H61" s="15">
+      <c r="M61" s="15">
         <v>8037511</v>
       </c>
-      <c r="I61" s="15">
+      <c r="N61" s="15">
         <v>9436084</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -1932,224 +2702,364 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>13</v>
+      <c r="E63" s="11">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
+        <v>0</v>
+      </c>
+      <c r="F64" s="13">
+        <v>0</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0</v>
+      </c>
+      <c r="H64" s="13">
+        <v>0</v>
+      </c>
+      <c r="I64" s="13">
+        <v>0</v>
+      </c>
+      <c r="J64" s="13">
         <v>15868</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="13">
+      <c r="K64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="13">
         <v>20572</v>
       </c>
-      <c r="H64" s="13">
-        <v>0</v>
-      </c>
-      <c r="I64" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M64" s="13">
+        <v>0</v>
+      </c>
+      <c r="N64" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
         <v>0</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F65" s="11">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
         <v>0</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F66" s="13">
+        <v>0</v>
+      </c>
+      <c r="G66" s="13">
+        <v>0</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0</v>
+      </c>
+      <c r="I66" s="13">
+        <v>0</v>
+      </c>
+      <c r="J66" s="13">
+        <v>0</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
         <v>0</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>13</v>
+      <c r="F67" s="11">
+        <v>0</v>
       </c>
       <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0</v>
+      </c>
+      <c r="J67" s="11">
+        <v>0</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="11">
         <v>132763</v>
       </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M67" s="11">
+        <v>0</v>
+      </c>
+      <c r="N67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D68" s="13"/>
-      <c r="E68" s="13" t="s">
-        <v>13</v>
+      <c r="E68" s="13">
+        <v>0</v>
       </c>
       <c r="F68" s="13">
         <v>0</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="13">
+        <v>0</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="11">
+        <v>406814</v>
+      </c>
+      <c r="J69" s="11">
         <v>-233708</v>
       </c>
-      <c r="F69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D70" s="13"/>
-      <c r="E70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>13</v>
+      <c r="E70" s="13">
+        <v>0</v>
+      </c>
+      <c r="F70" s="13">
+        <v>0</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17">
+        <v>0</v>
+      </c>
+      <c r="F71" s="17">
+        <v>0</v>
+      </c>
+      <c r="G71" s="17">
+        <v>0</v>
+      </c>
+      <c r="H71" s="17">
+        <v>0</v>
+      </c>
+      <c r="I71" s="17">
+        <v>406814</v>
+      </c>
+      <c r="J71" s="17">
         <v>-217840</v>
       </c>
-      <c r="F71" s="17">
-        <v>0</v>
-      </c>
-      <c r="G71" s="17">
+      <c r="K71" s="17">
+        <v>0</v>
+      </c>
+      <c r="L71" s="17">
         <v>153335</v>
       </c>
-      <c r="H71" s="17">
-        <v>0</v>
-      </c>
-      <c r="I71" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M71" s="17">
+        <v>0</v>
+      </c>
+      <c r="N71" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -2158,13 +3068,18 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
@@ -2173,229 +3088,379 @@
       <c r="F73" s="11">
         <v>0</v>
       </c>
-      <c r="G73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0</v>
+      </c>
+      <c r="K73" s="11">
+        <v>0</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
         <v>0</v>
       </c>
-      <c r="F75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F75" s="11">
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>0</v>
+      </c>
+      <c r="J75" s="11">
+        <v>0</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
         <v>0</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>13</v>
+      <c r="F76" s="13">
+        <v>0</v>
       </c>
       <c r="G76" s="13">
+        <v>0</v>
+      </c>
+      <c r="H76" s="13">
+        <v>0</v>
+      </c>
+      <c r="I76" s="13">
+        <v>0</v>
+      </c>
+      <c r="J76" s="13">
+        <v>0</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="13">
         <v>2565</v>
       </c>
-      <c r="H76" s="13">
-        <v>0</v>
-      </c>
-      <c r="I76" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M76" s="13">
+        <v>0</v>
+      </c>
+      <c r="N76" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>0</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="F77" s="11">
+        <v>0</v>
+      </c>
+      <c r="G77" s="11">
+        <v>0</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>0</v>
+      </c>
+      <c r="J77" s="11">
+        <v>0</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
         <v>0</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F78" s="13">
+        <v>0</v>
+      </c>
+      <c r="G78" s="13">
+        <v>0</v>
+      </c>
+      <c r="H78" s="13">
+        <v>0</v>
+      </c>
+      <c r="I78" s="13">
+        <v>0</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="F79" s="17">
         <v>0</v>
       </c>
       <c r="G79" s="17">
+        <v>0</v>
+      </c>
+      <c r="H79" s="17">
+        <v>0</v>
+      </c>
+      <c r="I79" s="17">
+        <v>0</v>
+      </c>
+      <c r="J79" s="17">
+        <v>0</v>
+      </c>
+      <c r="K79" s="17">
+        <v>0</v>
+      </c>
+      <c r="L79" s="17">
         <v>2565</v>
       </c>
-      <c r="H79" s="17">
-        <v>0</v>
-      </c>
-      <c r="I79" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M79" s="17">
+        <v>0</v>
+      </c>
+      <c r="N79" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D80" s="15"/>
-      <c r="E80" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>13</v>
+      <c r="E80" s="15">
+        <v>-8789</v>
+      </c>
+      <c r="F80" s="15">
+        <v>-6427</v>
+      </c>
+      <c r="G80" s="15">
+        <v>-11336</v>
+      </c>
+      <c r="H80" s="15">
+        <v>-9764</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="17">
-        <v>0</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>13</v>
+        <v>-115426</v>
+      </c>
+      <c r="F81" s="17">
+        <v>-321601</v>
       </c>
       <c r="G81" s="17">
-        <v>0</v>
+        <v>-492847</v>
       </c>
       <c r="H81" s="17">
-        <v>0</v>
+        <v>-138487</v>
       </c>
       <c r="I81" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="17">
+        <v>0</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="17">
+        <v>0</v>
+      </c>
+      <c r="M81" s="17">
+        <v>0</v>
+      </c>
+      <c r="N81" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
+        <v>3303905</v>
+      </c>
+      <c r="F82" s="15">
+        <v>3656094</v>
+      </c>
+      <c r="G82" s="15">
+        <v>4103635</v>
+      </c>
+      <c r="H82" s="15">
+        <v>4350370</v>
+      </c>
+      <c r="I82" s="15">
+        <v>4307063</v>
+      </c>
+      <c r="J82" s="15">
         <v>5043948</v>
       </c>
-      <c r="F82" s="15">
-        <v>0</v>
-      </c>
-      <c r="G82" s="15">
+      <c r="K82" s="15">
+        <v>0</v>
+      </c>
+      <c r="L82" s="15">
         <v>6973055</v>
       </c>
-      <c r="H82" s="15">
+      <c r="M82" s="15">
         <v>8037511</v>
       </c>
-      <c r="I82" s="15">
+      <c r="N82" s="15">
         <v>9436084</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2404,8 +3469,13 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2414,8 +3484,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2424,10 +3499,15 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2446,8 +3526,23 @@
       <c r="I86" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2456,10 +3551,15 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -2468,274 +3568,444 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>13</v>
+      <c r="E89" s="11">
+        <v>504791128</v>
       </c>
       <c r="F89" s="11">
+        <v>701133436</v>
+      </c>
+      <c r="G89" s="11">
+        <v>774827160</v>
+      </c>
+      <c r="H89" s="11">
+        <v>771018868</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="11">
         <v>741337544</v>
       </c>
-      <c r="G89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
+        <v>60244751</v>
+      </c>
+      <c r="F90" s="13">
+        <v>69600000</v>
+      </c>
+      <c r="G90" s="13">
+        <v>82647296</v>
+      </c>
+      <c r="H90" s="13">
+        <v>85759529</v>
+      </c>
+      <c r="I90" s="13">
+        <v>95043272</v>
+      </c>
+      <c r="J90" s="13">
         <v>112718499</v>
       </c>
-      <c r="F90" s="13">
+      <c r="K90" s="13">
         <v>113079870</v>
       </c>
-      <c r="G90" s="13">
+      <c r="L90" s="13">
         <v>156574211</v>
       </c>
-      <c r="H90" s="13">
+      <c r="M90" s="13">
         <v>204931292</v>
       </c>
-      <c r="I90" s="13">
+      <c r="N90" s="13">
         <v>196621071</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="11">
+      <c r="E91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="11">
+        <v>29426823</v>
+      </c>
+      <c r="G91" s="11">
+        <v>46498333</v>
+      </c>
+      <c r="H91" s="11">
+        <v>364949640</v>
+      </c>
+      <c r="I91" s="11">
+        <v>607370909</v>
+      </c>
+      <c r="J91" s="11">
         <v>575834034</v>
       </c>
-      <c r="F91" s="11">
+      <c r="K91" s="11">
         <v>556933806</v>
       </c>
-      <c r="G91" s="11">
+      <c r="L91" s="11">
         <v>777950877</v>
       </c>
-      <c r="H91" s="11">
+      <c r="M91" s="11">
         <v>865257143</v>
       </c>
-      <c r="I91" s="11">
+      <c r="N91" s="11">
         <v>643585165</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
+        <v>32932725</v>
+      </c>
+      <c r="F92" s="13">
+        <v>39103329</v>
+      </c>
+      <c r="G92" s="13">
+        <v>45128818</v>
+      </c>
+      <c r="H92" s="13">
+        <v>49174787</v>
+      </c>
+      <c r="I92" s="13">
+        <v>50240903</v>
+      </c>
+      <c r="J92" s="13">
         <v>57543286</v>
       </c>
-      <c r="F92" s="13">
+      <c r="K92" s="13">
         <v>59554449</v>
       </c>
-      <c r="G92" s="13">
+      <c r="L92" s="13">
         <v>76461335</v>
       </c>
-      <c r="H92" s="13">
+      <c r="M92" s="13">
         <v>102870733</v>
       </c>
-      <c r="I92" s="13">
+      <c r="N92" s="13">
         <v>99339564</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
+        <v>142120438</v>
+      </c>
+      <c r="F93" s="11">
+        <v>174390323</v>
+      </c>
+      <c r="G93" s="11">
+        <v>231790076</v>
+      </c>
+      <c r="H93" s="11">
+        <v>230078292</v>
+      </c>
+      <c r="I93" s="11">
+        <v>210113043</v>
+      </c>
+      <c r="J93" s="11">
         <v>232089888</v>
       </c>
-      <c r="F93" s="11">
+      <c r="K93" s="11">
         <v>229762295</v>
       </c>
-      <c r="G93" s="11">
+      <c r="L93" s="11">
         <v>285186770</v>
       </c>
-      <c r="H93" s="11">
+      <c r="M93" s="11">
         <v>422441964</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>421694981</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
+        <v>211500629</v>
+      </c>
+      <c r="F94" s="13">
+        <v>285428288</v>
+      </c>
+      <c r="G94" s="13">
+        <v>297187994</v>
+      </c>
+      <c r="H94" s="13">
+        <v>314190596</v>
+      </c>
+      <c r="I94" s="13">
+        <v>310351573</v>
+      </c>
+      <c r="J94" s="13">
         <v>357844969</v>
       </c>
-      <c r="F94" s="13">
+      <c r="K94" s="13">
         <v>362796693</v>
       </c>
-      <c r="G94" s="13">
+      <c r="L94" s="13">
         <v>480328394</v>
       </c>
-      <c r="H94" s="13">
+      <c r="M94" s="13">
         <v>665194428</v>
       </c>
-      <c r="I94" s="13">
+      <c r="N94" s="13">
         <v>691435552</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
+        <v>231438733</v>
+      </c>
+      <c r="F95" s="11">
+        <v>280963748</v>
+      </c>
+      <c r="G95" s="11">
+        <v>284237417</v>
+      </c>
+      <c r="H95" s="11">
+        <v>277462159</v>
+      </c>
+      <c r="I95" s="11">
+        <v>369961581</v>
+      </c>
+      <c r="J95" s="11">
         <v>370010522</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>420984582</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>484002950</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>650717218</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>691788862</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
+        <v>46749584</v>
+      </c>
+      <c r="F96" s="13">
+        <v>60248498</v>
+      </c>
+      <c r="G96" s="13">
+        <v>74701898</v>
+      </c>
+      <c r="H96" s="13">
+        <v>85844637</v>
+      </c>
+      <c r="I96" s="13">
+        <v>91697964</v>
+      </c>
+      <c r="J96" s="13">
         <v>113116831</v>
       </c>
-      <c r="F96" s="13">
+      <c r="K96" s="13">
         <v>104496203</v>
       </c>
-      <c r="G96" s="13">
+      <c r="L96" s="13">
         <v>141147569</v>
       </c>
-      <c r="H96" s="13">
+      <c r="M96" s="13">
         <v>175492464</v>
       </c>
-      <c r="I96" s="13">
+      <c r="N96" s="13">
         <v>177953786</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
+        <v>98444693</v>
+      </c>
+      <c r="F98" s="13">
+        <v>-44162175</v>
+      </c>
+      <c r="G98" s="13">
+        <v>448080997</v>
+      </c>
+      <c r="H98" s="13">
+        <v>373139104</v>
+      </c>
+      <c r="I98" s="13">
+        <v>625093897</v>
+      </c>
+      <c r="J98" s="13">
         <v>483286977</v>
       </c>
-      <c r="F98" s="13">
+      <c r="K98" s="13">
         <v>626485030</v>
       </c>
-      <c r="G98" s="13">
+      <c r="L98" s="13">
         <v>689125292</v>
       </c>
-      <c r="H98" s="13">
+      <c r="M98" s="13">
         <v>905188384</v>
       </c>
-      <c r="I98" s="13">
+      <c r="N98" s="13">
         <v>893129803</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11">
+      <c r="E99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="11">
+        <v>744438525</v>
+      </c>
+      <c r="J99" s="11">
         <v>759622951</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="11">
+      <c r="K99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="11">
         <v>1001834491</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>1719098361</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>1782085987</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -2744,202 +4014,327 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N101" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D102" s="13"/>
-      <c r="E102" s="13">
+      <c r="E102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="13">
         <v>1322333333</v>
       </c>
-      <c r="F102" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="13">
+      <c r="K102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="13">
         <v>605058824</v>
       </c>
-      <c r="H102" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N104" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="11">
+        <v>18</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L105" s="11">
         <v>555493724</v>
       </c>
-      <c r="H105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="11">
+      <c r="E107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="11">
+        <v>524921290</v>
+      </c>
+      <c r="J107" s="11">
         <v>467416000</v>
       </c>
-      <c r="F107" s="11">
+      <c r="K107" s="11">
         <v>477455238</v>
       </c>
-      <c r="G107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M108" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N108" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -2948,152 +4343,247 @@
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N111" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L113" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M113" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N113" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L115" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M115" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N115" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3102,8 +4592,13 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3112,8 +4607,13 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3122,10 +4622,15 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3144,8 +4649,23 @@
       <c r="I119" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N119" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3154,10 +4674,15 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -3166,296 +4691,481 @@
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
-        <v>13</v>
+      <c r="E122" s="11">
+        <v>-257271</v>
       </c>
       <c r="F122" s="11">
+        <v>-412387</v>
+      </c>
+      <c r="G122" s="11">
+        <v>63521</v>
+      </c>
+      <c r="H122" s="11">
+        <v>-200807</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="11">
         <v>-391334</v>
       </c>
-      <c r="G122" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13">
+        <v>-120772</v>
+      </c>
+      <c r="F123" s="13">
+        <v>-103173</v>
+      </c>
+      <c r="G123" s="13">
+        <v>-112071</v>
+      </c>
+      <c r="H123" s="13">
+        <v>-148669</v>
+      </c>
+      <c r="I123" s="13">
+        <v>-145343</v>
+      </c>
+      <c r="J123" s="13">
         <v>-170982</v>
       </c>
-      <c r="F123" s="13">
+      <c r="K123" s="13">
         <v>-158949</v>
       </c>
-      <c r="G123" s="13">
+      <c r="L123" s="13">
         <v>-230144</v>
       </c>
-      <c r="H123" s="13">
+      <c r="M123" s="13">
         <v>-240666</v>
       </c>
-      <c r="I123" s="13">
+      <c r="N123" s="13">
         <v>-218574</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D124" s="11"/>
-      <c r="E124" s="11">
+      <c r="E124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="11">
+        <v>-185454</v>
+      </c>
+      <c r="G124" s="11">
+        <v>-118825</v>
+      </c>
+      <c r="H124" s="11">
+        <v>-56313</v>
+      </c>
+      <c r="I124" s="11">
+        <v>-224870</v>
+      </c>
+      <c r="J124" s="11">
         <v>-219150</v>
       </c>
-      <c r="F124" s="11">
+      <c r="K124" s="11">
         <v>-376504</v>
       </c>
-      <c r="G124" s="11">
+      <c r="L124" s="11">
         <v>-156197</v>
       </c>
-      <c r="H124" s="11">
+      <c r="M124" s="11">
         <v>-2226565</v>
       </c>
-      <c r="I124" s="11">
+      <c r="N124" s="11">
         <v>1980968</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
+        <v>-74198</v>
+      </c>
+      <c r="F125" s="13">
+        <v>-56534</v>
+      </c>
+      <c r="G125" s="13">
+        <v>-87936</v>
+      </c>
+      <c r="H125" s="13">
+        <v>-108017</v>
+      </c>
+      <c r="I125" s="13">
+        <v>-120383</v>
+      </c>
+      <c r="J125" s="13">
         <v>-103153</v>
       </c>
-      <c r="F125" s="13">
+      <c r="K125" s="13">
         <v>-108212</v>
       </c>
-      <c r="G125" s="13">
+      <c r="L125" s="13">
         <v>-150919</v>
       </c>
-      <c r="H125" s="13">
+      <c r="M125" s="13">
         <v>-3253025</v>
       </c>
-      <c r="I125" s="13">
+      <c r="N125" s="13">
         <v>2953536</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>-34700</v>
+      </c>
+      <c r="F126" s="11">
+        <v>-43256</v>
+      </c>
+      <c r="G126" s="11">
+        <v>-46342</v>
+      </c>
+      <c r="H126" s="11">
+        <v>-51201</v>
+      </c>
+      <c r="I126" s="11">
+        <v>-44796</v>
+      </c>
+      <c r="J126" s="11">
         <v>-71490</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>-52049</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>-71346</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>-67064</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>-92429</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
+        <v>-588526</v>
+      </c>
+      <c r="F127" s="13">
+        <v>-651358</v>
+      </c>
+      <c r="G127" s="13">
+        <v>-826249</v>
+      </c>
+      <c r="H127" s="13">
+        <v>-828508</v>
+      </c>
+      <c r="I127" s="13">
+        <v>-1061396</v>
+      </c>
+      <c r="J127" s="13">
         <v>-1172867</v>
       </c>
-      <c r="F127" s="13">
+      <c r="K127" s="13">
         <v>-1089055</v>
       </c>
-      <c r="G127" s="13">
+      <c r="L127" s="13">
         <v>-1471224</v>
       </c>
-      <c r="H127" s="13">
+      <c r="M127" s="13">
         <v>-1901263</v>
       </c>
-      <c r="I127" s="13">
+      <c r="N127" s="13">
         <v>-1953975</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>-496865</v>
+      </c>
+      <c r="F128" s="11">
+        <v>-822871</v>
+      </c>
+      <c r="G128" s="11">
+        <v>-1278923</v>
+      </c>
+      <c r="H128" s="11">
+        <v>-916259</v>
+      </c>
+      <c r="I128" s="11">
+        <v>-601356</v>
+      </c>
+      <c r="J128" s="11">
         <v>-518792</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>-984692</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>-1020478</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>-648467</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>-2320504</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13">
+        <v>-787535</v>
+      </c>
+      <c r="F129" s="13">
+        <v>-718406</v>
+      </c>
+      <c r="G129" s="13">
+        <v>-989989</v>
+      </c>
+      <c r="H129" s="13">
+        <v>-746198</v>
+      </c>
+      <c r="I129" s="13">
+        <v>-602189</v>
+      </c>
+      <c r="J129" s="13">
         <v>-860194</v>
       </c>
-      <c r="F129" s="13">
+      <c r="K129" s="13">
         <v>-758227</v>
       </c>
-      <c r="G129" s="13">
+      <c r="L129" s="13">
         <v>-813307</v>
       </c>
-      <c r="H129" s="13">
+      <c r="M129" s="13">
         <v>491575</v>
       </c>
-      <c r="I129" s="13">
+      <c r="N129" s="13">
         <v>-2486480</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13">
+        <v>-741194</v>
+      </c>
+      <c r="F131" s="13">
+        <v>-252959</v>
+      </c>
+      <c r="G131" s="13">
+        <v>-356728</v>
+      </c>
+      <c r="H131" s="13">
+        <v>-882770</v>
+      </c>
+      <c r="I131" s="13">
+        <v>-363683</v>
+      </c>
+      <c r="J131" s="13">
         <v>-1305273</v>
       </c>
-      <c r="F131" s="13">
+      <c r="K131" s="13">
         <v>-805022</v>
       </c>
-      <c r="G131" s="13">
+      <c r="L131" s="13">
         <v>-1601247</v>
       </c>
-      <c r="H131" s="13">
+      <c r="M131" s="13">
         <v>569379</v>
       </c>
-      <c r="I131" s="13">
+      <c r="N131" s="13">
         <v>-5201811</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D132" s="11"/>
-      <c r="E132" s="11">
+      <c r="E132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="11">
+        <v>-358634</v>
+      </c>
+      <c r="J132" s="11">
         <v>-246078</v>
       </c>
-      <c r="F132" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="11">
+      <c r="K132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L132" s="11">
         <v>-793304</v>
       </c>
-      <c r="H132" s="11">
+      <c r="M132" s="11">
         <v>538474</v>
       </c>
-      <c r="I132" s="11">
+      <c r="N132" s="11">
         <v>-1290710</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15">
+        <v>-3101061</v>
+      </c>
+      <c r="F133" s="15">
+        <v>-3246398</v>
+      </c>
+      <c r="G133" s="15">
+        <v>-3753542</v>
+      </c>
+      <c r="H133" s="15">
+        <v>-3938742</v>
+      </c>
+      <c r="I133" s="15">
+        <v>-3522650</v>
+      </c>
+      <c r="J133" s="15">
         <v>-4667979</v>
       </c>
-      <c r="F133" s="15">
+      <c r="K133" s="15">
         <v>-4724044</v>
       </c>
-      <c r="G133" s="15">
+      <c r="L133" s="15">
         <v>-6308166</v>
       </c>
-      <c r="H133" s="15">
+      <c r="M133" s="15">
         <v>-6737622</v>
       </c>
-      <c r="I133" s="15">
+      <c r="N133" s="15">
         <v>-8629979</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -3464,116 +5174,181 @@
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D135" s="11"/>
-      <c r="E135" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>13</v>
+      <c r="E135" s="11">
+        <v>0</v>
+      </c>
+      <c r="F135" s="11">
+        <v>0</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N135" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13">
+        <v>3162</v>
+      </c>
+      <c r="F136" s="13">
+        <v>-3534</v>
+      </c>
+      <c r="G136" s="13">
+        <v>3534</v>
+      </c>
+      <c r="H136" s="13">
+        <v>0</v>
+      </c>
+      <c r="I136" s="13">
+        <v>0</v>
+      </c>
+      <c r="J136" s="13">
         <v>-13381</v>
       </c>
-      <c r="F136" s="13">
+      <c r="K136" s="13">
         <v>13381</v>
       </c>
-      <c r="G136" s="13">
-        <v>0</v>
-      </c>
-      <c r="H136" s="13">
-        <v>0</v>
-      </c>
-      <c r="I136" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L136" s="13">
+        <v>0</v>
+      </c>
+      <c r="M136" s="13">
+        <v>0</v>
+      </c>
+      <c r="N136" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
         <v>0</v>
       </c>
-      <c r="F137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I137" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F137" s="11">
+        <v>0</v>
+      </c>
+      <c r="G137" s="11">
+        <v>0</v>
+      </c>
+      <c r="H137" s="11">
+        <v>0</v>
+      </c>
+      <c r="I137" s="11">
+        <v>0</v>
+      </c>
+      <c r="J137" s="11">
+        <v>0</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13">
         <v>0</v>
       </c>
-      <c r="F138" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I138" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F138" s="13">
+        <v>0</v>
+      </c>
+      <c r="G138" s="13">
+        <v>0</v>
+      </c>
+      <c r="H138" s="13">
+        <v>0</v>
+      </c>
+      <c r="I138" s="13">
+        <v>0</v>
+      </c>
+      <c r="J138" s="13">
+        <v>0</v>
+      </c>
+      <c r="K138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N138" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
         <v>0</v>
       </c>
-      <c r="F139" s="11" t="s">
-        <v>13</v>
+      <c r="F139" s="11">
+        <v>0</v>
       </c>
       <c r="G139" s="11">
         <v>0</v>
@@ -3584,104 +5359,179 @@
       <c r="I139" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="11">
+        <v>0</v>
+      </c>
+      <c r="K139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L139" s="11">
+        <v>0</v>
+      </c>
+      <c r="M139" s="11">
+        <v>0</v>
+      </c>
+      <c r="N139" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D140" s="13"/>
-      <c r="E140" s="13" t="s">
-        <v>13</v>
+      <c r="E140" s="13">
+        <v>0</v>
       </c>
       <c r="F140" s="13">
         <v>0</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K140" s="13">
+        <v>0</v>
+      </c>
+      <c r="L140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N140" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11">
+        <v>0</v>
+      </c>
+      <c r="F141" s="11">
+        <v>0</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="11">
+        <v>-338442</v>
+      </c>
+      <c r="J141" s="11">
         <v>178182</v>
       </c>
-      <c r="F141" s="11">
+      <c r="K141" s="11">
         <v>160260</v>
       </c>
-      <c r="G141" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H141" s="11">
-        <v>0</v>
-      </c>
-      <c r="I141" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M141" s="11">
+        <v>0</v>
+      </c>
+      <c r="N141" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D142" s="13"/>
-      <c r="E142" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" s="13" t="s">
-        <v>13</v>
+      <c r="E142" s="13">
+        <v>0</v>
+      </c>
+      <c r="F142" s="13">
+        <v>0</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J142" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L142" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M142" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N142" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
       <c r="E143" s="17">
+        <v>3162</v>
+      </c>
+      <c r="F143" s="17">
+        <v>-3534</v>
+      </c>
+      <c r="G143" s="17">
+        <v>3534</v>
+      </c>
+      <c r="H143" s="17">
+        <v>0</v>
+      </c>
+      <c r="I143" s="17">
+        <v>-338442</v>
+      </c>
+      <c r="J143" s="17">
         <v>164801</v>
       </c>
-      <c r="F143" s="17">
+      <c r="K143" s="17">
         <v>173641</v>
       </c>
-      <c r="G143" s="17">
-        <v>0</v>
-      </c>
-      <c r="H143" s="17">
-        <v>0</v>
-      </c>
-      <c r="I143" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L143" s="17">
+        <v>0</v>
+      </c>
+      <c r="M143" s="17">
+        <v>0</v>
+      </c>
+      <c r="N143" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -3690,13 +5540,18 @@
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11">
@@ -3705,70 +5560,115 @@
       <c r="F145" s="11">
         <v>0</v>
       </c>
-      <c r="G145" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I145" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G145" s="11">
+        <v>0</v>
+      </c>
+      <c r="H145" s="11">
+        <v>0</v>
+      </c>
+      <c r="I145" s="11">
+        <v>0</v>
+      </c>
+      <c r="J145" s="11">
+        <v>0</v>
+      </c>
+      <c r="K145" s="11">
+        <v>0</v>
+      </c>
+      <c r="L145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D146" s="13"/>
       <c r="E146" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N146" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11">
         <v>0</v>
       </c>
-      <c r="F147" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H147" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F147" s="11">
+        <v>0</v>
+      </c>
+      <c r="G147" s="11">
+        <v>0</v>
+      </c>
+      <c r="H147" s="11">
+        <v>0</v>
+      </c>
+      <c r="I147" s="11">
+        <v>0</v>
+      </c>
+      <c r="J147" s="11">
+        <v>0</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N147" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D148" s="13"/>
       <c r="E148" s="13">
@@ -3786,58 +5686,103 @@
       <c r="I148" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="13">
+        <v>0</v>
+      </c>
+      <c r="K148" s="13">
+        <v>0</v>
+      </c>
+      <c r="L148" s="13">
+        <v>0</v>
+      </c>
+      <c r="M148" s="13">
+        <v>0</v>
+      </c>
+      <c r="N148" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
         <v>0</v>
       </c>
-      <c r="F149" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I149" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F149" s="11">
+        <v>0</v>
+      </c>
+      <c r="G149" s="11">
+        <v>0</v>
+      </c>
+      <c r="H149" s="11">
+        <v>0</v>
+      </c>
+      <c r="I149" s="11">
+        <v>0</v>
+      </c>
+      <c r="J149" s="11">
+        <v>0</v>
+      </c>
+      <c r="K149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N149" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D150" s="13"/>
       <c r="E150" s="13">
         <v>0</v>
       </c>
-      <c r="F150" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H150" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I150" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F150" s="13">
+        <v>0</v>
+      </c>
+      <c r="G150" s="13">
+        <v>0</v>
+      </c>
+      <c r="H150" s="13">
+        <v>0</v>
+      </c>
+      <c r="I150" s="13">
+        <v>0</v>
+      </c>
+      <c r="J150" s="13">
+        <v>0</v>
+      </c>
+      <c r="K150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M150" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N150" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -3856,44 +5801,74 @@
       <c r="I151" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="17">
+        <v>0</v>
+      </c>
+      <c r="K151" s="17">
+        <v>0</v>
+      </c>
+      <c r="L151" s="17">
+        <v>0</v>
+      </c>
+      <c r="M151" s="17">
+        <v>0</v>
+      </c>
+      <c r="N151" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D152" s="15"/>
-      <c r="E152" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" s="15" t="s">
-        <v>13</v>
+      <c r="E152" s="15">
+        <v>0</v>
+      </c>
+      <c r="F152" s="15">
+        <v>0</v>
+      </c>
+      <c r="G152" s="15">
+        <v>0</v>
+      </c>
+      <c r="H152" s="15">
+        <v>0</v>
       </c>
       <c r="I152" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J152" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K152" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L152" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M152" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N152" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="17">
         <v>0</v>
       </c>
-      <c r="F153" s="17" t="s">
-        <v>13</v>
+      <c r="F153" s="17">
+        <v>0</v>
       </c>
       <c r="G153" s="17">
         <v>0</v>
@@ -3904,30 +5879,60 @@
       <c r="I153" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="17">
+        <v>0</v>
+      </c>
+      <c r="K153" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L153" s="17">
+        <v>0</v>
+      </c>
+      <c r="M153" s="17">
+        <v>0</v>
+      </c>
+      <c r="N153" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
       <c r="E154" s="15">
+        <v>-3097899</v>
+      </c>
+      <c r="F154" s="15">
+        <v>-3249932</v>
+      </c>
+      <c r="G154" s="15">
+        <v>-3750008</v>
+      </c>
+      <c r="H154" s="15">
+        <v>-3938742</v>
+      </c>
+      <c r="I154" s="15">
+        <v>-3861092</v>
+      </c>
+      <c r="J154" s="15">
         <v>-4503178</v>
       </c>
-      <c r="F154" s="15">
+      <c r="K154" s="15">
         <v>-4550403</v>
       </c>
-      <c r="G154" s="15">
+      <c r="L154" s="15">
         <v>-6308166</v>
       </c>
-      <c r="H154" s="15">
+      <c r="M154" s="15">
         <v>-6737622</v>
       </c>
-      <c r="I154" s="15">
+      <c r="N154" s="15">
         <v>-8629979</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3936,8 +5941,13 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3946,8 +5956,13 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3956,10 +5971,15 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -3978,8 +5998,23 @@
       <c r="I158" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L158" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N158" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3988,10 +6023,15 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -4000,296 +6040,481 @@
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D161" s="11"/>
-      <c r="E161" s="11" t="s">
-        <v>13</v>
+      <c r="E161" s="11">
+        <v>15821</v>
       </c>
       <c r="F161" s="11">
+        <v>44752</v>
+      </c>
+      <c r="G161" s="11">
+        <v>440087</v>
+      </c>
+      <c r="H161" s="11">
+        <v>126105</v>
+      </c>
+      <c r="I161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" s="11">
         <v>2632</v>
       </c>
-      <c r="G161" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I161" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N161" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D162" s="13"/>
       <c r="E162" s="13">
+        <v>-20344</v>
+      </c>
+      <c r="F162" s="13">
+        <v>-6429</v>
+      </c>
+      <c r="G162" s="13">
+        <v>-9671</v>
+      </c>
+      <c r="H162" s="13">
+        <v>-24918</v>
+      </c>
+      <c r="I162" s="13">
+        <v>-15321</v>
+      </c>
+      <c r="J162" s="13">
         <v>-44850</v>
       </c>
-      <c r="F162" s="13">
+      <c r="K162" s="13">
         <v>-20200</v>
       </c>
-      <c r="G162" s="13">
+      <c r="L162" s="13">
         <v>2995</v>
       </c>
-      <c r="H162" s="13">
+      <c r="M162" s="13">
         <v>33737</v>
       </c>
-      <c r="I162" s="13">
+      <c r="N162" s="13">
         <v>12849</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D163" s="11"/>
-      <c r="E163" s="11">
+      <c r="E163" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" s="11">
+        <v>38131</v>
+      </c>
+      <c r="G163" s="11">
+        <v>-35128</v>
+      </c>
+      <c r="H163" s="11">
+        <v>95871</v>
+      </c>
+      <c r="I163" s="11">
+        <v>-57845</v>
+      </c>
+      <c r="J163" s="11">
         <v>54947</v>
       </c>
-      <c r="F163" s="11">
+      <c r="K163" s="11">
         <v>-140921</v>
       </c>
-      <c r="G163" s="11">
+      <c r="L163" s="11">
         <v>65519</v>
       </c>
-      <c r="H163" s="11">
+      <c r="M163" s="11">
         <v>-2075145</v>
       </c>
-      <c r="I163" s="11">
+      <c r="N163" s="11">
         <v>2215233</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D164" s="13"/>
       <c r="E164" s="13">
+        <v>-5665</v>
+      </c>
+      <c r="F164" s="13">
+        <v>-147</v>
+      </c>
+      <c r="G164" s="13">
+        <v>-19972</v>
+      </c>
+      <c r="H164" s="13">
+        <v>-10110</v>
+      </c>
+      <c r="I164" s="13">
+        <v>-6190</v>
+      </c>
+      <c r="J164" s="13">
         <v>-18737</v>
       </c>
-      <c r="F164" s="13">
+      <c r="K164" s="13">
         <v>-12508</v>
       </c>
-      <c r="G164" s="13">
+      <c r="L164" s="13">
         <v>-6560</v>
       </c>
-      <c r="H164" s="13">
+      <c r="M164" s="13">
         <v>-3069195</v>
       </c>
-      <c r="I164" s="13">
+      <c r="N164" s="13">
         <v>3081088</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="11">
+        <v>4241</v>
+      </c>
+      <c r="F165" s="11">
+        <v>10805</v>
+      </c>
+      <c r="G165" s="11">
+        <v>14387</v>
+      </c>
+      <c r="H165" s="11">
+        <v>13451</v>
+      </c>
+      <c r="I165" s="11">
+        <v>-1837</v>
+      </c>
+      <c r="J165" s="11">
         <v>-9522</v>
       </c>
-      <c r="F165" s="11">
+      <c r="K165" s="11">
         <v>4013</v>
       </c>
-      <c r="G165" s="11">
+      <c r="L165" s="11">
         <v>1947</v>
       </c>
-      <c r="H165" s="11">
+      <c r="M165" s="11">
         <v>27563</v>
       </c>
-      <c r="I165" s="11">
+      <c r="N165" s="11">
         <v>16790</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D166" s="13"/>
       <c r="E166" s="13">
+        <v>84046</v>
+      </c>
+      <c r="F166" s="13">
+        <v>212348</v>
+      </c>
+      <c r="G166" s="13">
+        <v>528</v>
+      </c>
+      <c r="H166" s="13">
+        <v>167162</v>
+      </c>
+      <c r="I166" s="13">
+        <v>31797</v>
+      </c>
+      <c r="J166" s="13">
         <v>175135</v>
       </c>
-      <c r="F166" s="13">
+      <c r="K166" s="13">
         <v>95839</v>
       </c>
-      <c r="G166" s="13">
+      <c r="L166" s="13">
         <v>149404</v>
       </c>
-      <c r="H166" s="13">
+      <c r="M166" s="13">
         <v>367050</v>
       </c>
-      <c r="I166" s="13">
+      <c r="N166" s="13">
         <v>352654</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11">
+        <v>277529</v>
+      </c>
+      <c r="F167" s="11">
+        <v>277664</v>
+      </c>
+      <c r="G167" s="11">
+        <v>-160733</v>
+      </c>
+      <c r="H167" s="11">
+        <v>80940</v>
+      </c>
+      <c r="I167" s="11">
+        <v>48995</v>
+      </c>
+      <c r="J167" s="11">
         <v>325202</v>
       </c>
-      <c r="F167" s="11">
+      <c r="K167" s="11">
         <v>162070</v>
       </c>
-      <c r="G167" s="11">
+      <c r="L167" s="11">
         <v>-36016</v>
       </c>
-      <c r="H167" s="11">
+      <c r="M167" s="11">
         <v>1063570</v>
       </c>
-      <c r="I167" s="11">
+      <c r="N167" s="11">
         <v>-593799</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D168" s="13"/>
       <c r="E168" s="13">
+        <v>167185</v>
+      </c>
+      <c r="F168" s="13">
+        <v>-6570</v>
+      </c>
+      <c r="G168" s="13">
+        <v>332384</v>
+      </c>
+      <c r="H168" s="13">
+        <v>28464</v>
+      </c>
+      <c r="I168" s="13">
+        <v>90290</v>
+      </c>
+      <c r="J168" s="13">
         <v>-12044</v>
       </c>
-      <c r="F168" s="13">
+      <c r="K168" s="13">
         <v>-42637</v>
       </c>
-      <c r="G168" s="13">
+      <c r="L168" s="13">
         <v>89614</v>
       </c>
-      <c r="H168" s="13">
+      <c r="M168" s="13">
         <v>1527858</v>
       </c>
-      <c r="I168" s="13">
+      <c r="N168" s="13">
         <v>-1111787</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J169" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K169" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L169" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M169" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N169" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D170" s="13"/>
       <c r="E170" s="13">
+        <v>8167</v>
+      </c>
+      <c r="F170" s="13">
+        <v>-66153</v>
+      </c>
+      <c r="G170" s="13">
+        <v>-69060</v>
+      </c>
+      <c r="H170" s="13">
+        <v>82914</v>
+      </c>
+      <c r="I170" s="13">
+        <v>168897</v>
+      </c>
+      <c r="J170" s="13">
         <v>-47277</v>
       </c>
-      <c r="F170" s="13">
+      <c r="K170" s="13">
         <v>-72661</v>
       </c>
-      <c r="G170" s="13">
+      <c r="L170" s="13">
         <v>169805</v>
       </c>
-      <c r="H170" s="13">
+      <c r="M170" s="13">
         <v>2361652</v>
       </c>
-      <c r="I170" s="13">
+      <c r="N170" s="13">
         <v>-2435788</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D171" s="11"/>
-      <c r="E171" s="11">
+      <c r="E171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="11">
+        <v>-29438</v>
+      </c>
+      <c r="J171" s="11">
         <v>170955</v>
       </c>
-      <c r="F171" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" s="11">
+      <c r="K171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L171" s="11">
         <v>72281</v>
       </c>
-      <c r="H171" s="11">
+      <c r="M171" s="11">
         <v>1062799</v>
       </c>
-      <c r="I171" s="11">
+      <c r="N171" s="11">
         <v>-731135</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
       <c r="E172" s="15">
+        <v>530980</v>
+      </c>
+      <c r="F172" s="15">
+        <v>504401</v>
+      </c>
+      <c r="G172" s="15">
+        <v>492822</v>
+      </c>
+      <c r="H172" s="15">
+        <v>559879</v>
+      </c>
+      <c r="I172" s="15">
+        <v>229348</v>
+      </c>
+      <c r="J172" s="15">
         <v>593809</v>
       </c>
-      <c r="F172" s="15">
+      <c r="K172" s="15">
         <v>-24373</v>
       </c>
-      <c r="G172" s="15">
+      <c r="L172" s="15">
         <v>508989</v>
       </c>
-      <c r="H172" s="15">
+      <c r="M172" s="15">
         <v>1299889</v>
       </c>
-      <c r="I172" s="15">
+      <c r="N172" s="15">
         <v>806105</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -4298,224 +6523,364 @@
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="9"/>
+      <c r="M173" s="9"/>
+      <c r="N173" s="9"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D174" s="11"/>
-      <c r="E174" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>13</v>
+      <c r="E174" s="11">
+        <v>0</v>
+      </c>
+      <c r="F174" s="11">
+        <v>0</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N174" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D175" s="13"/>
       <c r="E175" s="13">
+        <v>3162</v>
+      </c>
+      <c r="F175" s="13">
+        <v>-3534</v>
+      </c>
+      <c r="G175" s="13">
+        <v>3534</v>
+      </c>
+      <c r="H175" s="13">
+        <v>0</v>
+      </c>
+      <c r="I175" s="13">
+        <v>0</v>
+      </c>
+      <c r="J175" s="13">
         <v>2487</v>
       </c>
-      <c r="F175" s="13">
+      <c r="K175" s="13">
         <v>13381</v>
       </c>
-      <c r="G175" s="13">
+      <c r="L175" s="13">
         <v>20572</v>
       </c>
-      <c r="H175" s="13">
-        <v>0</v>
-      </c>
-      <c r="I175" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M175" s="13">
+        <v>0</v>
+      </c>
+      <c r="N175" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11">
         <v>0</v>
       </c>
-      <c r="F176" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H176" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I176" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F176" s="11">
+        <v>0</v>
+      </c>
+      <c r="G176" s="11">
+        <v>0</v>
+      </c>
+      <c r="H176" s="11">
+        <v>0</v>
+      </c>
+      <c r="I176" s="11">
+        <v>0</v>
+      </c>
+      <c r="J176" s="11">
+        <v>0</v>
+      </c>
+      <c r="K176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N176" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="13">
         <v>0</v>
       </c>
-      <c r="F177" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G177" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H177" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I177" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F177" s="13">
+        <v>0</v>
+      </c>
+      <c r="G177" s="13">
+        <v>0</v>
+      </c>
+      <c r="H177" s="13">
+        <v>0</v>
+      </c>
+      <c r="I177" s="13">
+        <v>0</v>
+      </c>
+      <c r="J177" s="13">
+        <v>0</v>
+      </c>
+      <c r="K177" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L177" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M177" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N177" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11">
         <v>0</v>
       </c>
-      <c r="F178" s="11" t="s">
-        <v>13</v>
+      <c r="F178" s="11">
+        <v>0</v>
       </c>
       <c r="G178" s="11">
+        <v>0</v>
+      </c>
+      <c r="H178" s="11">
+        <v>0</v>
+      </c>
+      <c r="I178" s="11">
+        <v>0</v>
+      </c>
+      <c r="J178" s="11">
+        <v>0</v>
+      </c>
+      <c r="K178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L178" s="11">
         <v>132763</v>
       </c>
-      <c r="H178" s="11">
-        <v>0</v>
-      </c>
-      <c r="I178" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M178" s="11">
+        <v>0</v>
+      </c>
+      <c r="N178" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D179" s="13"/>
-      <c r="E179" s="13" t="s">
-        <v>13</v>
+      <c r="E179" s="13">
+        <v>0</v>
       </c>
       <c r="F179" s="13">
         <v>0</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J179" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K179" s="13">
+        <v>0</v>
+      </c>
+      <c r="L179" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M179" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N179" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
+        <v>0</v>
+      </c>
+      <c r="F180" s="11">
+        <v>0</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" s="11">
+        <v>68372</v>
+      </c>
+      <c r="J180" s="11">
         <v>-55526</v>
       </c>
-      <c r="F180" s="11">
+      <c r="K180" s="11">
         <v>410924</v>
       </c>
-      <c r="G180" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H180" s="11">
-        <v>0</v>
-      </c>
-      <c r="I180" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L180" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M180" s="11">
+        <v>0</v>
+      </c>
+      <c r="N180" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D181" s="13"/>
-      <c r="E181" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" s="13" t="s">
-        <v>13</v>
+      <c r="E181" s="13">
+        <v>0</v>
+      </c>
+      <c r="F181" s="13">
+        <v>0</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J181" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K181" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L181" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M181" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N181" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C182" s="17"/>
       <c r="D182" s="17"/>
       <c r="E182" s="17">
+        <v>3162</v>
+      </c>
+      <c r="F182" s="17">
+        <v>-3534</v>
+      </c>
+      <c r="G182" s="17">
+        <v>3534</v>
+      </c>
+      <c r="H182" s="17">
+        <v>0</v>
+      </c>
+      <c r="I182" s="17">
+        <v>68372</v>
+      </c>
+      <c r="J182" s="17">
         <v>-53039</v>
       </c>
-      <c r="F182" s="17">
+      <c r="K182" s="17">
         <v>424305</v>
       </c>
-      <c r="G182" s="17">
+      <c r="L182" s="17">
         <v>153335</v>
       </c>
-      <c r="H182" s="17">
-        <v>0</v>
-      </c>
-      <c r="I182" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M182" s="17">
+        <v>0</v>
+      </c>
+      <c r="N182" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -4524,13 +6889,18 @@
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
       <c r="I183" s="9"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+      <c r="M183" s="9"/>
+      <c r="N183" s="9"/>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
@@ -4539,70 +6909,115 @@
       <c r="F184" s="11">
         <v>0</v>
       </c>
-      <c r="G184" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H184" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I184" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G184" s="11">
+        <v>0</v>
+      </c>
+      <c r="H184" s="11">
+        <v>0</v>
+      </c>
+      <c r="I184" s="11">
+        <v>0</v>
+      </c>
+      <c r="J184" s="11">
+        <v>0</v>
+      </c>
+      <c r="K184" s="11">
+        <v>0</v>
+      </c>
+      <c r="L184" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M184" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N184" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D185" s="13"/>
       <c r="E185" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J185" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K185" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L185" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M185" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N185" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
         <v>0</v>
       </c>
-      <c r="F186" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G186" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H186" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I186" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F186" s="11">
+        <v>0</v>
+      </c>
+      <c r="G186" s="11">
+        <v>0</v>
+      </c>
+      <c r="H186" s="11">
+        <v>0</v>
+      </c>
+      <c r="I186" s="11">
+        <v>0</v>
+      </c>
+      <c r="J186" s="11">
+        <v>0</v>
+      </c>
+      <c r="K186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M186" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N186" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D187" s="13"/>
       <c r="E187" s="13">
@@ -4612,104 +7027,179 @@
         <v>0</v>
       </c>
       <c r="G187" s="13">
+        <v>0</v>
+      </c>
+      <c r="H187" s="13">
+        <v>0</v>
+      </c>
+      <c r="I187" s="13">
+        <v>0</v>
+      </c>
+      <c r="J187" s="13">
+        <v>0</v>
+      </c>
+      <c r="K187" s="13">
+        <v>0</v>
+      </c>
+      <c r="L187" s="13">
         <v>2565</v>
       </c>
-      <c r="H187" s="13">
-        <v>0</v>
-      </c>
-      <c r="I187" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M187" s="13">
+        <v>0</v>
+      </c>
+      <c r="N187" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
-        <v>0</v>
-      </c>
-      <c r="F188" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H188" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I188" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="F188" s="11">
+        <v>1</v>
+      </c>
+      <c r="G188" s="11">
+        <v>0</v>
+      </c>
+      <c r="H188" s="11">
+        <v>0</v>
+      </c>
+      <c r="I188" s="11">
+        <v>0</v>
+      </c>
+      <c r="J188" s="11">
+        <v>0</v>
+      </c>
+      <c r="K188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N188" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D189" s="13"/>
       <c r="E189" s="13">
         <v>0</v>
       </c>
-      <c r="F189" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I189" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F189" s="13">
+        <v>0</v>
+      </c>
+      <c r="G189" s="13">
+        <v>0</v>
+      </c>
+      <c r="H189" s="13">
+        <v>0</v>
+      </c>
+      <c r="I189" s="13">
+        <v>0</v>
+      </c>
+      <c r="J189" s="13">
+        <v>0</v>
+      </c>
+      <c r="K189" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L189" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M189" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N189" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C190" s="17"/>
       <c r="D190" s="17"/>
       <c r="E190" s="17">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="F190" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" s="17">
+        <v>0</v>
+      </c>
+      <c r="H190" s="17">
+        <v>0</v>
+      </c>
+      <c r="I190" s="17">
+        <v>0</v>
+      </c>
+      <c r="J190" s="17">
+        <v>0</v>
+      </c>
+      <c r="K190" s="17">
+        <v>0</v>
+      </c>
+      <c r="L190" s="17">
         <v>2565</v>
       </c>
-      <c r="H190" s="17">
-        <v>0</v>
-      </c>
-      <c r="I190" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M190" s="17">
+        <v>0</v>
+      </c>
+      <c r="N190" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15">
+        <v>534334</v>
+      </c>
+      <c r="F191" s="15">
+        <v>500868</v>
+      </c>
+      <c r="G191" s="15">
+        <v>496356</v>
+      </c>
+      <c r="H191" s="15">
+        <v>559879</v>
+      </c>
+      <c r="I191" s="15">
+        <v>297720</v>
+      </c>
+      <c r="J191" s="15">
         <v>540770</v>
       </c>
-      <c r="F191" s="15">
+      <c r="K191" s="15">
         <v>399932</v>
       </c>
-      <c r="G191" s="15">
+      <c r="L191" s="15">
         <v>664889</v>
       </c>
-      <c r="H191" s="15">
+      <c r="M191" s="15">
         <v>1299889</v>
       </c>
-      <c r="I191" s="15">
+      <c r="N191" s="15">
         <v>806105</v>
       </c>
     </row>
